--- a/Listado Portal IVA AFIP.xlsx
+++ b/Listado Portal IVA AFIP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-Libros-IVA-Presentados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-Libros-IVA-Presentados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C802F-0514-49B9-8B25-AFA9A24EAD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2003469-1D38-4FDE-B299-650311983BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$S$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$T$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,91 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{667C8231-459D-4178-8DD2-6BB0DC65AE07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT para ingresar sesión</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{496DD702-F04B-4B53-9173-AA7A3221FE34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT del Representado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A06DBC95-D7CD-40EB-93CB-D07BA31DF911}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+si el archivo no se guarda en la ubicación o con el nombre definido se debe poner NO
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="23">
   <si>
     <t>Nro</t>
   </si>
@@ -105,12 +188,18 @@
   <si>
     <t>20-00000000-0</t>
   </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +224,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1591,6 +1693,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1855,12 +1961,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,14 +1976,14 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="11" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,43 +2006,46 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1959,53 +2068,56 @@
         <v>45108</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I16" si="3">CONCATENATE(H2,"\",B2,"\","PIVA","\",K2,"\")</f>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="J2:J16" si="3">CONCATENATE(I2,"\",B2,"\","PIVA","\",L2,"\")</f>
         <v>\Cliente 2\PIVA\202307\</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0"),"  - ",K2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="K2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0"),"  - ",L2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0  - 202307 - 20000000000 - Cliente 2</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K33" si="4">YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ref="L2:L33" si="4">YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202307</v>
       </c>
-      <c r="L2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O2,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M2" s="4" t="str">
+      <c r="M2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P2,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N2" s="4" t="str">
         <f>IFERROR(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N2" s="5" t="str">
-        <f t="shared" ref="N2:N33" si="5">IF(EXACT(M2,E2),"ü","x")</f>
+      <c r="O2" s="5" t="str">
+        <f t="shared" ref="O2:O33" si="5">IF(EXACT(N2,E2),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="O2" s="4">
-        <f t="shared" ref="O2:O33" si="6">ROW(A2)</f>
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P33" si="6">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="str">
-        <f t="shared" ref="P2:P33" si="7">TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
+      <c r="Q2" s="4" t="str">
+        <f t="shared" ref="Q2:Q33" si="7">TEXT(MONTH(F2),"00")&amp;"/"&amp;YEAR(F2)</f>
         <v>07/2023</v>
       </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="8">IF(C2=C1,1,0)</f>
-        <v>0</v>
-      </c>
       <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="9">IF(C2=C3,1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="R2:R33" si="8">IF(C2=C1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="10">SUM(Q2:R2)</f>
+        <f t="shared" ref="S2:S33" si="9">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T33" si="10">SUM(R2:S2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2028,53 +2140,56 @@
         <v>45108</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2" t="str">
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 3\PIVA\202307\</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J16" si="11">CONCATENATE(TEXT(A3,"0"),"  - ",K3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K16" si="11">CONCATENATE(TEXT(A3,"0"),"  - ",L3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0  - 202307 - 20000000000 - Cliente 3</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="L3" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O3,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M3" s="4" t="str">
+      <c r="M3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P3,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="4" t="str">
         <f>IFERROR(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N3" s="5" t="str">
+      <c r="O3" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P3" s="4" t="str">
+      <c r="Q3" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2097,53 +2212,56 @@
         <v>45108</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2" t="str">
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 4\PIVA\202307\</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 4</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O4,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M4" s="4" t="str">
+      <c r="M4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P4,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N4" s="4" t="str">
         <f>IFERROR(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N4" s="5" t="str">
+      <c r="O4" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P4" s="4" t="str">
+      <c r="Q4" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2166,53 +2284,56 @@
         <v>45108</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="str">
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 5\PIVA\202307\</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 5</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O5,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="4" t="str">
+      <c r="M5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P5,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="4" t="str">
         <f>IFERROR(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N5" s="5" t="str">
+      <c r="O5" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="P5" s="4" t="str">
+      <c r="Q5" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2235,53 +2356,56 @@
         <v>45108</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="str">
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 6\PIVA\202307\</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 6</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O6,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="4" t="str">
+      <c r="M6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P6,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="4" t="str">
         <f>IFERROR(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N6" s="5" t="str">
+      <c r="O6" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="P6" s="4" t="str">
+      <c r="Q6" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2304,53 +2428,56 @@
         <v>45108</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2" t="str">
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 7\PIVA\202307\</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 7</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O7,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="4" t="str">
+      <c r="M7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P7,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="4" t="str">
         <f>IFERROR(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="O7" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="Q7" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2373,53 +2500,56 @@
         <v>45108</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="str">
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 8\PIVA\202307\</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 8</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O8,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="4" t="str">
+      <c r="M8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P8,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="4" t="str">
         <f>IFERROR(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="O8" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P8" s="4" t="str">
+      <c r="Q8" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2442,53 +2572,56 @@
         <v>45108</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2" t="str">
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 9\PIVA\202307\</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 9</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O9,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="4" t="str">
+      <c r="M9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P9,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="4" t="str">
         <f>IFERROR(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N9" s="5" t="str">
+      <c r="O9" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P9" s="4" t="str">
+      <c r="Q9" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2511,53 +2644,56 @@
         <v>45108</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2" t="str">
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 10\PIVA\202307\</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 10</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O10,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="4" t="str">
+      <c r="M10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P10,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="4" t="str">
         <f>IFERROR(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N10" s="5" t="str">
+      <c r="O10" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="Q10" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2580,53 +2716,56 @@
         <v>45108</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2" t="str">
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 11\PIVA\202307\</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 11</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O11,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="4" t="str">
+      <c r="M11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P11,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="4" t="str">
         <f>IFERROR(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N11" s="5" t="str">
+      <c r="O11" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P11" s="4" t="str">
+      <c r="Q11" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2649,53 +2788,56 @@
         <v>45108</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2" t="str">
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 12\PIVA\202307\</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 12</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O12,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="4" t="str">
+      <c r="M12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P12,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="4" t="str">
         <f>IFERROR(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N12" s="5" t="str">
+      <c r="O12" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="P12" s="4" t="str">
+      <c r="Q12" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2718,53 +2860,56 @@
         <v>45108</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2" t="str">
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 13\PIVA\202307\</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 13</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O13,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="4" t="str">
+      <c r="M13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P13,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="4" t="str">
         <f>IFERROR(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N13" s="5" t="str">
+      <c r="O13" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="P13" s="4" t="str">
+      <c r="Q13" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2787,53 +2932,56 @@
         <v>45108</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2" t="str">
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 14\PIVA\202307\</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 14</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O14,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="4" t="str">
+      <c r="M14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P14,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="4" t="str">
         <f>IFERROR(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N14" s="5" t="str">
+      <c r="O14" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O14" s="4">
+      <c r="P14" s="4">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P14" s="4" t="str">
+      <c r="Q14" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2856,53 +3004,56 @@
         <v>45108</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2" t="str">
+      <c r="H15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 15\PIVA\202307\</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 15</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O15,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="4" t="str">
+      <c r="M15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P15,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="4" t="str">
         <f>IFERROR(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N15" s="5" t="str">
+      <c r="O15" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="P15" s="4" t="str">
+      <c r="Q15" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2925,53 +3076,56 @@
         <v>45108</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2" t="str">
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>\Cliente 16\PIVA\202307\</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0  - 202307 - 20000000000 - Cliente 16</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(TEXT(O16,"0"),[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="4" t="str">
+      <c r="M16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(TEXT(P16,"0"),[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="4" t="str">
         <f>IFERROR(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N16" s="5" t="str">
+      <c r="O16" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="P16" s="4" t="str">
+      <c r="Q16" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2994,53 +3148,56 @@
         <v>45108</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17:I48" si="14">CONCATENATE(H17,"\",B17,"\","COMVEN LID","\",YEAR(F17),"\",TEXT(MONTH(F17),"00"),"\")</f>
+      <c r="H17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2" t="str">
+        <f t="shared" ref="J17:J48" si="14">CONCATENATE(I17,"\",B17,"\","COMVEN LID","\",YEAR(F17),"\",TEXT(MONTH(F17),"00"),"\")</f>
         <v>\Cliente 17\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" ref="J17:J48" si="15">CONCATENATE(TEXT(A17,"0"),"  - ",K17," - ",SUBSTITUTE(D17,"-","")," - ",B17)</f>
+      <c r="K17" s="2" t="str">
+        <f t="shared" ref="K17:K48" si="15">CONCATENATE(TEXT(A17,"0"),"  - ",L17," - ",SUBSTITUTE(D17,"-","")," - ",B17)</f>
         <v>0  - 202307 - 30000000000 - Cliente 17</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O17,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="4" t="str">
+      <c r="M17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P17,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="4" t="str">
         <f>IFERROR(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N17" s="5" t="str">
+      <c r="O17" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="P17" s="4" t="str">
+      <c r="Q17" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3063,53 +3220,56 @@
         <v>45108</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2" t="str">
+      <c r="H18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 18\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 18</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O18,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="4" t="str">
+      <c r="M18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P18,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="4" t="str">
         <f>IFERROR(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N18" s="5" t="str">
+      <c r="O18" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="P18" s="4" t="str">
+      <c r="Q18" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3132,53 +3292,56 @@
         <v>45108</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2" t="str">
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 19\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 19</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O19,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="4" t="str">
+      <c r="M19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P19,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="4" t="str">
         <f>IFERROR(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N19" s="5" t="str">
+      <c r="O19" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="P19" s="4" t="str">
+      <c r="Q19" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3201,53 +3364,56 @@
         <v>45108</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2" t="str">
+      <c r="H20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 20\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="K20" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 20</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O20,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="4" t="str">
+      <c r="M20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P20,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N20" s="4" t="str">
         <f>IFERROR(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N20" s="5" t="str">
+      <c r="O20" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="P20" s="4" t="str">
+      <c r="Q20" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3270,53 +3436,56 @@
         <v>45108</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="str">
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 21\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="K21" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 21</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O21,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="4" t="str">
+      <c r="M21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P21,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="4" t="str">
         <f>IFERROR(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N21" s="5" t="str">
+      <c r="O21" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O21" s="4">
+      <c r="P21" s="4">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="P21" s="4" t="str">
+      <c r="Q21" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3339,53 +3508,56 @@
         <v>45108</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="str">
+      <c r="H22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 22\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="K22" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 22</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O22,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="4" t="str">
+      <c r="M22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P22,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="4" t="str">
         <f>IFERROR(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N22" s="5" t="str">
+      <c r="O22" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O22" s="4">
+      <c r="P22" s="4">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="P22" s="4" t="str">
+      <c r="Q22" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3408,53 +3580,56 @@
         <v>45108</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="str">
+      <c r="H23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 23\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="K23" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 23</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O23,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="4" t="str">
+      <c r="M23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P23,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="4" t="str">
         <f>IFERROR(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N23" s="5" t="str">
+      <c r="O23" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="P23" s="4" t="str">
+      <c r="Q23" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3477,53 +3652,56 @@
         <v>45108</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2" t="str">
+      <c r="H24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 24\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="K24" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 24</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O24,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="4" t="str">
+      <c r="M24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P24,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="4" t="str">
         <f>IFERROR(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N24" s="5" t="str">
+      <c r="O24" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="P24" s="4" t="str">
+      <c r="Q24" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3546,53 +3724,56 @@
         <v>45108</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2" t="str">
+      <c r="H25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 25\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="K25" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 25</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O25,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M25" s="4" t="str">
+      <c r="M25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P25,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="4" t="str">
         <f>IFERROR(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N25" s="5" t="str">
+      <c r="O25" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O25" s="4">
+      <c r="P25" s="4">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="P25" s="4" t="str">
+      <c r="Q25" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3615,53 +3796,56 @@
         <v>45108</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2" t="str">
+      <c r="H26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 26\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 26</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O26,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="4" t="str">
+      <c r="M26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P26,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="4" t="str">
         <f>IFERROR(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N26" s="5" t="str">
+      <c r="O26" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="P26" s="4" t="str">
+      <c r="Q26" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3684,53 +3868,56 @@
         <v>45108</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2" t="str">
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 27\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 27</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O27,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="4" t="str">
+      <c r="M27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P27,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="4" t="str">
         <f>IFERROR(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N27" s="5" t="str">
+      <c r="O27" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="P27" s="4" t="str">
+      <c r="Q27" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3753,53 +3940,56 @@
         <v>45108</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2" t="str">
+      <c r="H28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 28\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 28</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O28,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M28" s="4" t="str">
+      <c r="M28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P28,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="4" t="str">
         <f>IFERROR(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N28" s="5" t="str">
+      <c r="O28" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O28" s="4">
+      <c r="P28" s="4">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="P28" s="4" t="str">
+      <c r="Q28" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3822,53 +4012,56 @@
         <v>45108</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2" t="str">
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 29\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 29</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O29,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M29" s="4" t="str">
+      <c r="M29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P29,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="4" t="str">
         <f>IFERROR(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N29" s="5" t="str">
+      <c r="O29" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O29" s="4">
+      <c r="P29" s="4">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="P29" s="4" t="str">
+      <c r="Q29" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3891,53 +4084,56 @@
         <v>45108</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2" t="str">
+      <c r="H30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 30\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 30</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O30,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M30" s="4" t="str">
+      <c r="M30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P30,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="4" t="str">
         <f>IFERROR(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N30" s="5" t="str">
+      <c r="O30" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="P30" s="4" t="str">
+      <c r="Q30" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3960,53 +4156,56 @@
         <v>45108</v>
       </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2" t="str">
+      <c r="H31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 31\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J31" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 31</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O31,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M31" s="4" t="str">
+      <c r="M31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P31,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="4" t="str">
         <f>IFERROR(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N31" s="5" t="str">
+      <c r="O31" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="P31" s="4" t="str">
+      <c r="Q31" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4029,53 +4228,56 @@
         <v>45108</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2" t="str">
+      <c r="H32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 32\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J32" s="2" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 32</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O32,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="4" t="str">
+      <c r="M32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P32,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="4" t="str">
         <f>IFERROR(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N32" s="5" t="str">
+      <c r="O32" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="4">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="P32" s="4" t="str">
+      <c r="Q32" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4098,53 +4300,56 @@
         <v>45108</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2" t="str">
+      <c r="H33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 33\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J33" s="2" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 33</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="4"/>
         <v>202307</v>
       </c>
-      <c r="L33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O33,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M33" s="4" t="str">
+      <c r="M33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P33,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="4" t="str">
         <f>IFERROR(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N33" s="5" t="str">
+      <c r="O33" s="5" t="str">
         <f t="shared" si="5"/>
         <v>x</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="P33" s="4" t="str">
+      <c r="Q33" s="4" t="str">
         <f t="shared" si="7"/>
         <v>07/2023</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A69" si="16">RIGHT(D34,1)</f>
         <v>0</v>
@@ -4167,53 +4372,56 @@
         <v>45108</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2" t="str">
+      <c r="H34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 34\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 34</v>
       </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" ref="K34:K69" si="17">YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
+      <c r="L34" s="2" t="str">
+        <f t="shared" ref="L34:L69" si="17">YEAR(F34)&amp;TEXT(MONTH(F34),"00")</f>
         <v>202307</v>
       </c>
-      <c r="L34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O34,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M34" s="4" t="str">
+      <c r="M34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P34,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="4" t="str">
         <f>IFERROR(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N34" s="5" t="str">
-        <f t="shared" ref="N34:N65" si="18">IF(EXACT(M34,E34),"ü","x")</f>
+      <c r="O34" s="5" t="str">
+        <f t="shared" ref="O34:O65" si="18">IF(EXACT(N34,E34),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="O34" s="4">
-        <f t="shared" ref="O34:O69" si="19">ROW(A34)</f>
+      <c r="P34" s="4">
+        <f t="shared" ref="P34:P69" si="19">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="P34" s="4" t="str">
-        <f t="shared" ref="P34:P69" si="20">TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
+      <c r="Q34" s="4" t="str">
+        <f t="shared" ref="Q34:Q69" si="20">TEXT(MONTH(F34),"00")&amp;"/"&amp;YEAR(F34)</f>
         <v>07/2023</v>
       </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="21">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="22">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="R34:R69" si="21">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S65" si="23">SUM(Q34:R34)</f>
+        <f t="shared" ref="S34:S69" si="22">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" ref="T34:T65" si="23">SUM(R34:S34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4236,53 +4444,56 @@
         <v>45108</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2" t="str">
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 35\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J35" s="2" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 35</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O35,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="4" t="str">
+      <c r="M35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P35,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="4" t="str">
         <f>IFERROR(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N35" s="5" t="str">
+      <c r="O35" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O35" s="4">
+      <c r="P35" s="4">
         <f t="shared" si="19"/>
         <v>35</v>
       </c>
-      <c r="P35" s="4" t="str">
+      <c r="Q35" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4305,53 +4516,56 @@
         <v>45108</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2" t="str">
+      <c r="H36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 36\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 36</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O36,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M36" s="4" t="str">
+      <c r="M36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P36,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="4" t="str">
         <f>IFERROR(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N36" s="5" t="str">
+      <c r="O36" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O36" s="4">
+      <c r="P36" s="4">
         <f t="shared" si="19"/>
         <v>36</v>
       </c>
-      <c r="P36" s="4" t="str">
+      <c r="Q36" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4374,53 +4588,56 @@
         <v>45108</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2" t="str">
+      <c r="H37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 37\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J37" s="2" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 37</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O37,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M37" s="4" t="str">
+      <c r="M37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P37,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="4" t="str">
         <f>IFERROR(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N37" s="5" t="str">
+      <c r="O37" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <f t="shared" si="19"/>
         <v>37</v>
       </c>
-      <c r="P37" s="4" t="str">
+      <c r="Q37" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4443,53 +4660,56 @@
         <v>45108</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2" t="str">
+      <c r="H38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 38\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 38</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O38,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M38" s="4" t="str">
+      <c r="M38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P38,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="4" t="str">
         <f>IFERROR(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N38" s="5" t="str">
+      <c r="O38" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O38" s="4">
+      <c r="P38" s="4">
         <f t="shared" si="19"/>
         <v>38</v>
       </c>
-      <c r="P38" s="4" t="str">
+      <c r="Q38" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4512,53 +4732,56 @@
         <v>45108</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2" t="str">
+      <c r="H39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 39\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J39" s="2" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 39</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O39,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M39" s="4" t="str">
+      <c r="M39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P39,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="4" t="str">
         <f>IFERROR(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N39" s="5" t="str">
+      <c r="O39" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O39" s="4">
+      <c r="P39" s="4">
         <f t="shared" si="19"/>
         <v>39</v>
       </c>
-      <c r="P39" s="4" t="str">
+      <c r="Q39" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4581,53 +4804,56 @@
         <v>45108</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="2" t="str">
+      <c r="H40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 40\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J40" s="2" t="str">
+      <c r="K40" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 40</v>
       </c>
-      <c r="K40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O40,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M40" s="4" t="str">
+      <c r="M40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P40,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="4" t="str">
         <f>IFERROR(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N40" s="5" t="str">
+      <c r="O40" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <f t="shared" si="19"/>
         <v>40</v>
       </c>
-      <c r="P40" s="4" t="str">
+      <c r="Q40" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4650,53 +4876,56 @@
         <v>45108</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2" t="str">
+      <c r="H41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 41\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J41" s="2" t="str">
+      <c r="K41" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 41</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O41,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M41" s="4" t="str">
+      <c r="M41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P41,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="4" t="str">
         <f>IFERROR(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N41" s="5" t="str">
+      <c r="O41" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <f t="shared" si="19"/>
         <v>41</v>
       </c>
-      <c r="P41" s="4" t="str">
+      <c r="Q41" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4719,53 +4948,56 @@
         <v>45108</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="2" t="str">
+      <c r="H42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 42\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J42" s="2" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 42</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O42,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M42" s="4" t="str">
+      <c r="M42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P42,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N42" s="4" t="str">
         <f>IFERROR(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N42" s="5" t="str">
+      <c r="O42" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <f t="shared" si="19"/>
         <v>42</v>
       </c>
-      <c r="P42" s="4" t="str">
+      <c r="Q42" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4788,53 +5020,56 @@
         <v>45108</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="2" t="str">
+      <c r="H43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 43\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J43" s="2" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 43</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O43,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M43" s="4" t="str">
+      <c r="M43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P43,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N43" s="4" t="str">
         <f>IFERROR(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N43" s="5" t="str">
+      <c r="O43" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O43" s="4">
+      <c r="P43" s="4">
         <f t="shared" si="19"/>
         <v>43</v>
       </c>
-      <c r="P43" s="4" t="str">
+      <c r="Q43" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4857,53 +5092,56 @@
         <v>45108</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2" t="str">
+      <c r="H44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 44\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J44" s="2" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 44</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O44,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M44" s="4" t="str">
+      <c r="M44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P44,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N44" s="4" t="str">
         <f>IFERROR(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N44" s="5" t="str">
+      <c r="O44" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O44" s="4">
+      <c r="P44" s="4">
         <f t="shared" si="19"/>
         <v>44</v>
       </c>
-      <c r="P44" s="4" t="str">
+      <c r="Q44" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4926,53 +5164,56 @@
         <v>45108</v>
       </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="2" t="str">
+      <c r="H45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 45\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J45" s="2" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 45</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O45,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M45" s="4" t="str">
+      <c r="M45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P45,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="4" t="str">
         <f>IFERROR(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N45" s="5" t="str">
+      <c r="O45" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <f t="shared" si="19"/>
         <v>45</v>
       </c>
-      <c r="P45" s="4" t="str">
+      <c r="Q45" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -4995,53 +5236,56 @@
         <v>45108</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="2" t="str">
+      <c r="H46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 46\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 46</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O46,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M46" s="4" t="str">
+      <c r="M46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P46,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N46" s="4" t="str">
         <f>IFERROR(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N46" s="5" t="str">
+      <c r="O46" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <f t="shared" si="19"/>
         <v>46</v>
       </c>
-      <c r="P46" s="4" t="str">
+      <c r="Q46" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5064,53 +5308,56 @@
         <v>45108</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="2" t="str">
+      <c r="H47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 47\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 47</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O47,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M47" s="4" t="str">
+      <c r="M47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P47,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="4" t="str">
         <f>IFERROR(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N47" s="5" t="str">
+      <c r="O47" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <f t="shared" si="19"/>
         <v>47</v>
       </c>
-      <c r="P47" s="4" t="str">
+      <c r="Q47" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5133,53 +5380,56 @@
         <v>45108</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="2" t="str">
+      <c r="H48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="2" t="str">
         <f t="shared" si="14"/>
         <v>\Cliente 48\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J48" s="2" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="15"/>
         <v>0  - 202307 - 30000000000 - Cliente 48</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O48,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M48" s="4" t="str">
+      <c r="M48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P48,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N48" s="4" t="str">
         <f>IFERROR(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N48" s="5" t="str">
+      <c r="O48" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <f t="shared" si="19"/>
         <v>48</v>
       </c>
-      <c r="P48" s="4" t="str">
+      <c r="Q48" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5202,53 +5452,56 @@
         <v>45108</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2" t="str">
-        <f t="shared" ref="I49:I69" si="24">CONCATENATE(H49,"\",B49,"\","COMVEN LID","\",YEAR(F49),"\",TEXT(MONTH(F49),"00"),"\")</f>
+      <c r="H49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2" t="str">
+        <f t="shared" ref="J49:J69" si="24">CONCATENATE(I49,"\",B49,"\","COMVEN LID","\",YEAR(F49),"\",TEXT(MONTH(F49),"00"),"\")</f>
         <v>\Cliente 49\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J49" s="2" t="str">
-        <f t="shared" ref="J49:J69" si="25">CONCATENATE(TEXT(A49,"0"),"  - ",K49," - ",SUBSTITUTE(D49,"-","")," - ",B49)</f>
+      <c r="K49" s="2" t="str">
+        <f t="shared" ref="K49:K69" si="25">CONCATENATE(TEXT(A49,"0"),"  - ",L49," - ",SUBSTITUTE(D49,"-","")," - ",B49)</f>
         <v>0  - 202307 - 30000000000 - Cliente 49</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O49,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M49" s="4" t="str">
+      <c r="M49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P49,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N49" s="4" t="str">
         <f>IFERROR(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N49" s="5" t="str">
+      <c r="O49" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <f t="shared" si="19"/>
         <v>49</v>
       </c>
-      <c r="P49" s="4" t="str">
+      <c r="Q49" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5271,53 +5524,56 @@
         <v>45108</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="2" t="str">
+      <c r="H50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 50\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J50" s="2" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 50</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O50,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M50" s="4" t="str">
+      <c r="M50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P50,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N50" s="4" t="str">
         <f>IFERROR(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="5" t="str">
+      <c r="O50" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O50" s="4">
+      <c r="P50" s="4">
         <f t="shared" si="19"/>
         <v>50</v>
       </c>
-      <c r="P50" s="4" t="str">
+      <c r="Q50" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="R50" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5340,53 +5596,56 @@
         <v>45108</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="2" t="str">
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 51\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J51" s="2" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 51</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O51,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M51" s="4" t="str">
+      <c r="M51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P51,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N51" s="4" t="str">
         <f>IFERROR(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N51" s="5" t="str">
+      <c r="O51" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O51" s="4">
+      <c r="P51" s="4">
         <f t="shared" si="19"/>
         <v>51</v>
       </c>
-      <c r="P51" s="4" t="str">
+      <c r="Q51" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5409,53 +5668,56 @@
         <v>45108</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="2" t="str">
+      <c r="H52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 52\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J52" s="2" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 52</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O52,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M52" s="4" t="str">
+      <c r="M52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P52,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N52" s="4" t="str">
         <f>IFERROR(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N52" s="5" t="str">
+      <c r="O52" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <f t="shared" si="19"/>
         <v>52</v>
       </c>
-      <c r="P52" s="4" t="str">
+      <c r="Q52" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5478,53 +5740,56 @@
         <v>45108</v>
       </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="2" t="str">
+      <c r="H53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 53\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J53" s="2" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 53</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O53,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M53" s="4" t="str">
+      <c r="M53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P53,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N53" s="4" t="str">
         <f>IFERROR(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N53" s="5" t="str">
+      <c r="O53" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O53" s="4">
+      <c r="P53" s="4">
         <f t="shared" si="19"/>
         <v>53</v>
       </c>
-      <c r="P53" s="4" t="str">
+      <c r="Q53" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="R53" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5547,53 +5812,56 @@
         <v>45108</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2" t="str">
+      <c r="H54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 54\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 54</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O54,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M54" s="4" t="str">
+      <c r="M54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P54,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N54" s="4" t="str">
         <f>IFERROR(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N54" s="5" t="str">
+      <c r="O54" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O54" s="4">
+      <c r="P54" s="4">
         <f t="shared" si="19"/>
         <v>54</v>
       </c>
-      <c r="P54" s="4" t="str">
+      <c r="Q54" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5616,53 +5884,56 @@
         <v>45108</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="2" t="str">
+      <c r="H55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 55\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 55</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O55,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M55" s="4" t="str">
+      <c r="M55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P55,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N55" s="4" t="str">
         <f>IFERROR(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N55" s="5" t="str">
+      <c r="O55" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O55" s="4">
+      <c r="P55" s="4">
         <f t="shared" si="19"/>
         <v>55</v>
       </c>
-      <c r="P55" s="4" t="str">
+      <c r="Q55" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="R55" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5685,53 +5956,56 @@
         <v>45108</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2" t="str">
+      <c r="H56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 56\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J56" s="2" t="str">
+      <c r="K56" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 56</v>
       </c>
-      <c r="K56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O56,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M56" s="4" t="str">
+      <c r="M56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P56,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N56" s="4" t="str">
         <f>IFERROR(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N56" s="5" t="str">
+      <c r="O56" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O56" s="4">
+      <c r="P56" s="4">
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="P56" s="4" t="str">
+      <c r="Q56" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="R56" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5754,53 +6028,56 @@
         <v>45108</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="2" t="str">
+      <c r="H57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 57\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J57" s="2" t="str">
+      <c r="K57" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 57</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O57,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M57" s="4" t="str">
+      <c r="M57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P57,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N57" s="4" t="str">
         <f>IFERROR(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N57" s="5" t="str">
+      <c r="O57" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O57" s="4">
+      <c r="P57" s="4">
         <f t="shared" si="19"/>
         <v>57</v>
       </c>
-      <c r="P57" s="4" t="str">
+      <c r="Q57" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="R57" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5823,53 +6100,56 @@
         <v>45108</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2" t="str">
+      <c r="H58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 58\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J58" s="2" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 58</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O58,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M58" s="4" t="str">
+      <c r="M58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P58,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N58" s="4" t="str">
         <f>IFERROR(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N58" s="5" t="str">
+      <c r="O58" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O58" s="4">
+      <c r="P58" s="4">
         <f t="shared" si="19"/>
         <v>58</v>
       </c>
-      <c r="P58" s="4" t="str">
+      <c r="Q58" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="R58" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5892,53 +6172,56 @@
         <v>45108</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="2" t="str">
+      <c r="H59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 59\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J59" s="2" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 59</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O59,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M59" s="4" t="str">
+      <c r="M59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P59,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N59" s="4" t="str">
         <f>IFERROR(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N59" s="5" t="str">
+      <c r="O59" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O59" s="4">
+      <c r="P59" s="4">
         <f t="shared" si="19"/>
         <v>59</v>
       </c>
-      <c r="P59" s="4" t="str">
+      <c r="Q59" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="R59" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -5961,53 +6244,56 @@
         <v>45108</v>
       </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="2" t="str">
+      <c r="H60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 60\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J60" s="2" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 60</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O60,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M60" s="4" t="str">
+      <c r="M60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P60,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N60" s="4" t="str">
         <f>IFERROR(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N60" s="5" t="str">
+      <c r="O60" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O60" s="4">
+      <c r="P60" s="4">
         <f t="shared" si="19"/>
         <v>60</v>
       </c>
-      <c r="P60" s="4" t="str">
+      <c r="Q60" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="R60" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6030,53 +6316,56 @@
         <v>45108</v>
       </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="2" t="str">
+      <c r="H61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 61\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J61" s="2" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 61</v>
       </c>
-      <c r="K61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O61,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M61" s="4" t="str">
+      <c r="M61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P61,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N61" s="4" t="str">
         <f>IFERROR(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N61" s="5" t="str">
+      <c r="O61" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O61" s="4">
+      <c r="P61" s="4">
         <f t="shared" si="19"/>
         <v>61</v>
       </c>
-      <c r="P61" s="4" t="str">
+      <c r="Q61" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="R61" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6099,53 +6388,56 @@
         <v>45108</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="2" t="str">
+      <c r="H62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 62\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J62" s="2" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 62</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O62,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M62" s="4" t="str">
+      <c r="M62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P62,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N62" s="4" t="str">
         <f>IFERROR(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N62" s="5" t="str">
+      <c r="O62" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O62" s="4">
+      <c r="P62" s="4">
         <f t="shared" si="19"/>
         <v>62</v>
       </c>
-      <c r="P62" s="4" t="str">
+      <c r="Q62" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="R62" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6168,53 +6460,56 @@
         <v>45108</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="2" t="str">
+      <c r="H63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 63\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J63" s="2" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 63</v>
       </c>
-      <c r="K63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O63,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M63" s="4" t="str">
+      <c r="M63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P63,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N63" s="4" t="str">
         <f>IFERROR(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N63" s="5" t="str">
+      <c r="O63" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O63" s="4">
+      <c r="P63" s="4">
         <f t="shared" si="19"/>
         <v>63</v>
       </c>
-      <c r="P63" s="4" t="str">
+      <c r="Q63" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="R63" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6237,53 +6532,56 @@
         <v>45108</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="2" t="str">
+      <c r="H64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 64\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J64" s="2" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 64</v>
       </c>
-      <c r="K64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O64,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M64" s="4" t="str">
+      <c r="M64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P64,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N64" s="4" t="str">
         <f>IFERROR(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N64" s="5" t="str">
+      <c r="O64" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O64" s="4">
+      <c r="P64" s="4">
         <f t="shared" si="19"/>
         <v>64</v>
       </c>
-      <c r="P64" s="4" t="str">
+      <c r="Q64" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="R64" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6306,53 +6604,56 @@
         <v>45108</v>
       </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="2" t="str">
+      <c r="H65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 65\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J65" s="2" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 65</v>
       </c>
-      <c r="K65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O65,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M65" s="4" t="str">
+      <c r="M65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P65,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N65" s="4" t="str">
         <f>IFERROR(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N65" s="5" t="str">
+      <c r="O65" s="5" t="str">
         <f t="shared" si="18"/>
         <v>x</v>
       </c>
-      <c r="O65" s="4">
+      <c r="P65" s="4">
         <f t="shared" si="19"/>
         <v>65</v>
       </c>
-      <c r="P65" s="4" t="str">
+      <c r="Q65" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="R65" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6375,53 +6676,56 @@
         <v>45108</v>
       </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="2" t="str">
+      <c r="H66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 66\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J66" s="2" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 66</v>
       </c>
-      <c r="K66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O66,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M66" s="4" t="str">
+      <c r="M66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P66,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N66" s="4" t="str">
         <f>IFERROR(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N66" s="5" t="str">
-        <f t="shared" ref="N66:N69" si="26">IF(EXACT(M66,E66),"ü","x")</f>
+      <c r="O66" s="5" t="str">
+        <f t="shared" ref="O66:O69" si="26">IF(EXACT(N66,E66),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="O66" s="4">
+      <c r="P66" s="4">
         <f t="shared" si="19"/>
         <v>66</v>
       </c>
-      <c r="P66" s="4" t="str">
+      <c r="Q66" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="R66" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S66" s="4">
-        <f t="shared" ref="S66:S67" si="27">SUM(Q66:R66)</f>
+      <c r="T66" s="4">
+        <f t="shared" ref="T66:T67" si="27">SUM(R66:S66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6444,53 +6748,56 @@
         <v>45108</v>
       </c>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2" t="str">
+      <c r="H67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 67\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J67" s="2" t="str">
+      <c r="K67" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 67</v>
       </c>
-      <c r="K67" s="2" t="str">
+      <c r="L67" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O67,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M67" s="4" t="str">
+      <c r="M67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P67,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N67" s="4" t="str">
         <f>IFERROR(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N67" s="5" t="str">
+      <c r="O67" s="5" t="str">
         <f t="shared" si="26"/>
         <v>x</v>
       </c>
-      <c r="O67" s="4">
+      <c r="P67" s="4">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="P67" s="4" t="str">
+      <c r="Q67" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="R67" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S67" s="4">
+      <c r="T67" s="4">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6513,53 +6820,56 @@
         <v>45108</v>
       </c>
       <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="2" t="str">
+      <c r="H68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 68\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J68" s="2" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 68</v>
       </c>
-      <c r="K68" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O68,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M68" s="4" t="str">
+      <c r="M68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P68,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N68" s="4" t="str">
         <f>IFERROR(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N68" s="5" t="str">
+      <c r="O68" s="5" t="str">
         <f t="shared" si="26"/>
         <v>x</v>
       </c>
-      <c r="O68" s="4">
+      <c r="P68" s="4">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="P68" s="4" t="str">
+      <c r="Q68" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="R68" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S68" s="4">
-        <f t="shared" ref="S68:S69" si="30">SUM(Q68:R68)</f>
+      <c r="T68" s="4">
+        <f t="shared" ref="T68:T69" si="30">SUM(R68:S68)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6582,59 +6892,68 @@
         <v>45108</v>
       </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2" t="str">
+      <c r="H69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="2" t="str">
         <f t="shared" si="24"/>
         <v>\Cliente 69\COMVEN LID\2023\07\</v>
       </c>
-      <c r="J69" s="2" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="25"/>
         <v>0  - 202307 - 30000000000 - Cliente 69</v>
       </c>
-      <c r="K69" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="17"/>
         <v>202307</v>
       </c>
-      <c r="L69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(O69,[1]Control!$A:$B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M69" s="4" t="str">
+      <c r="M69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(P69,[1]Control!$A:$B,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N69" s="4" t="str">
         <f>IFERROR(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="N69" s="5" t="str">
+      <c r="O69" s="5" t="str">
         <f t="shared" si="26"/>
         <v>x</v>
       </c>
-      <c r="O69" s="4">
+      <c r="P69" s="4">
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="P69" s="4" t="str">
+      <c r="Q69" s="4" t="str">
         <f t="shared" si="20"/>
         <v>07/2023</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="R69" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S69" s="4">
+      <c r="T69" s="4">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P69">
+  <autoFilter ref="A1:T69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H69" xr:uid="{7E972142-D653-408A-86F3-5F96B8C05E58}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>